--- a/src/test/resources/Book1.xlsx
+++ b/src/test/resources/Book1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUS\eclipse-workspace\FruitsShopProject\src\test\resources\"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
   <si>
     <t>username</t>
   </si>
@@ -148,6 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -740,16 +741,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.69140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.53515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.69140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.53515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.921875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.765625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.765625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.69140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="31" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.69140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.53515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.69140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.53515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.921875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.765625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.765625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.69140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="31.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -802,7 +803,9 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="29"/>
+      <c r="K2" s="29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
@@ -819,7 +822,9 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="29"/>
+      <c r="K3" s="29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
@@ -836,7 +841,9 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="29"/>
+      <c r="K4" s="29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
@@ -849,7 +856,9 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="29"/>
+      <c r="K5" s="29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="25"/>
@@ -866,7 +875,9 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="29"/>
+      <c r="K6" s="29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -883,7 +894,9 @@
       <c r="J7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="29"/>
+      <c r="K7" s="29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
@@ -904,7 +917,9 @@
       <c r="J8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="29"/>
+      <c r="K8" s="29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
@@ -925,7 +940,9 @@
       <c r="J9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="29"/>
+      <c r="K9" s="29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
@@ -946,7 +963,9 @@
       <c r="J10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="29"/>
+      <c r="K10" s="29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28"/>
@@ -967,7 +986,9 @@
       <c r="J11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="29"/>
+      <c r="K11" s="29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
@@ -998,7 +1019,9 @@
       <c r="J12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="29"/>
+      <c r="K12" s="29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
@@ -1027,7 +1050,9 @@
       <c r="J13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="29"/>
+      <c r="K13" s="29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28"/>
@@ -1052,7 +1077,9 @@
       <c r="J14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="29"/>
+      <c r="K14" s="29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
@@ -1302,13 +1329,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.921875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.921875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.84375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.765625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.4609375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.15234375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.921875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.921875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.84375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.765625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.4609375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="23.15234375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">

--- a/src/test/resources/Book1.xlsx
+++ b/src/test/resources/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUS\eclipse-workspace\FruitsShopProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B98E31-9CE9-439E-AF6D-915760C14AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF00150D-E1AC-4077-96A0-1D69C5331EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C1C81985-D8BD-427E-96AB-48B5CDCFCE27}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>username</t>
   </si>
@@ -148,7 +148,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -371,6 +370,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -389,7 +389,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -736,25 +735,25 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K2" sqref="K2:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.69140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.53515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.69140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.53515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.921875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.765625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.765625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.69140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="1" max="1" width="11.69140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.53515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.69140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.53515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.921875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.765625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.765625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.69140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="31" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -789,7 +788,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
@@ -803,12 +802,10 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="29" t="s">
-        <v>6</v>
-      </c>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
@@ -822,12 +819,10 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="29" t="s">
-        <v>6</v>
-      </c>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
@@ -841,12 +836,10 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="29" t="s">
-        <v>6</v>
-      </c>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="8"/>
@@ -856,12 +849,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="29" t="s">
-        <v>6</v>
-      </c>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
@@ -875,12 +866,10 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="29" t="s">
-        <v>6</v>
-      </c>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="2"/>
@@ -894,12 +883,10 @@
       <c r="J7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="29" t="s">
-        <v>6</v>
-      </c>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9">
         <v>123</v>
@@ -917,12 +904,10 @@
       <c r="J8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="29" t="s">
-        <v>6</v>
-      </c>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9">
         <v>123456</v>
@@ -940,12 +925,10 @@
       <c r="J9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="29" t="s">
-        <v>6</v>
-      </c>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9">
         <v>123456</v>
@@ -963,12 +946,10 @@
       <c r="J10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="29" t="s">
-        <v>6</v>
-      </c>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9">
         <v>123456</v>
@@ -986,12 +967,10 @@
       <c r="J11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="29" t="s">
-        <v>6</v>
-      </c>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -1019,12 +998,10 @@
       <c r="J12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="29" t="s">
-        <v>6</v>
-      </c>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="13" t="s">
         <v>8</v>
       </c>
@@ -1050,12 +1027,10 @@
       <c r="J13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="29" t="s">
-        <v>6</v>
-      </c>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="1:11" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
@@ -1077,9 +1052,7 @@
       <c r="J14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="29" t="s">
-        <v>6</v>
-      </c>
+      <c r="K14" s="23"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
@@ -1329,13 +1302,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.921875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.921875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.84375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.765625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.4609375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="23.15234375" collapsed="true"/>
+    <col min="1" max="1" width="13.921875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.921875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.84375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.765625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.4609375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.15234375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
